--- a/authentication/server/src/main/resources/templates/template-user.xlsx
+++ b/authentication/server/src/main/resources/templates/template-user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\goudong-java\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915D42EE-153F-49FF-A7C5-8DA20156E0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C625A7C7-AA62-421D-AE92-A2A48E13D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="2535" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,17 @@
       </rPr>
       <t>锁定状态</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 用户名：同一应用下用户名唯一；
+2. 有效期，用户有效截止时间，超过有效期用户不能登录，填写示例：2030-01-01 00:00:00；
+3. 激活状态：分为已激活和未激活，未激活的用户不能登录；
+4. 锁定状态：分为已锁定和未锁定，当用户在某些情况下被认为是不安全的（例如，多次输入错误密码或账户被其他用户报告为恶意），他们的账户将被锁定。锁定账户的目的是防止用户在不安全的情况下使用其账户。在账户被锁定期间，用户无法登录，并且必须在特定的时间段内重置密码或联系管理员以解锁账户。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,9 +155,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,15 +239,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,43 +572,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5CEC48-5F9C-4F04-A393-FBBF3E21069C}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1"/>
+    <col min="1" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="187.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{84F245E5-A0CB-428B-8100-B11125705252}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C1048576" xr:uid="{84F245E5-A0CB-428B-8100-B11125705252}">
       <formula1>"已激活,未激活"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{F80F4AC9-14B4-461B-80C3-3D327C4F296E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{F80F4AC9-14B4-461B-80C3-3D327C4F296E}">
       <formula1>"未锁定,已锁定"</formula1>
     </dataValidation>
   </dataValidations>

--- a/authentication/server/src/main/resources/templates/template-user.xlsx
+++ b/authentication/server/src/main/resources/templates/template-user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\goudong-java\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C625A7C7-AA62-421D-AE92-A2A48E13D799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D841A58D-FE24-4D87-9104-29D42041F9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="2880" windowWidth="21600" windowHeight="11295" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -144,10 +144,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 用户名：同一应用下用户名唯一；
-2. 有效期，用户有效截止时间，超过有效期用户不能登录，填写示例：2030-01-01 00:00:00；
-3. 激活状态：分为已激活和未激活，未激活的用户不能登录；
-4. 锁定状态：分为已锁定和未锁定，当用户在某些情况下被认为是不安全的（例如，多次输入错误密码或账户被其他用户报告为恶意），他们的账户将被锁定。锁定账户的目的是防止用户在不安全的情况下使用其账户。在账户被锁定期间，用户无法登录，并且必须在特定的时间段内重置密码或联系管理员以解锁账户。</t>
+    <r>
+      <t>注意：表头携带“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”表示该列必传。
+1、用户名：同一应用下用户名唯一；
+2、有效期，用户有效截止时间，超过有效期用户不能登录，填写示例：2030-01-01 00:00:00；
+3、激活状态：分为已激活和未激活，未激活的用户不能登录；
+4、锁定状态：分为已锁定和未锁定，当用户在某些情况下被认为是不安全的（例如，多次输入错误密码或账户被其他用户报告为恶意），他们的账户将被锁定。锁定账户的目的是防止用户在不安全的情况下使用其账户。在账户被锁定期间，用户无法登录，并且必须在特定的时间段内重置密码或联系管理员以解锁账户。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,8 +220,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,14 +296,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,10 +629,10 @@
   <cols>
     <col min="1" max="2" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="56.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="187.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>

--- a/authentication/server/src/main/resources/templates/template-user.xlsx
+++ b/authentication/server/src/main/resources/templates/template-user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\cfl\goudong-java\authentication\server\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D841A58D-FE24-4D87-9104-29D42041F9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BE0165-1350-4380-9A98-6F330F1C3FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBCB9AA8-8EFA-490B-BF23-E11985A41C49}"/>
   </bookViews>
@@ -167,9 +167,82 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>”表示该列必传。
+      <t xml:space="preserve">”表示该列必传。
 1、用户名：同一应用下用户名唯一；
-2、有效期，用户有效截止时间，超过有效期用户不能登录，填写示例：2030-01-01 00:00:00；
+2、有效期，用户有效截止时间，超过有效期的用户不能登录。
+    2.1、填写具体的日期时间，格式 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yyyy-MM-dd HH:mm:ss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    2.2、填写具体的日期，格式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">yyyy-MM-dd（时间是当天零点）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    2.3、填写具体的时间，格式</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HH:mm:ss（日期是当天）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+填写格式： 此种格式会在日期当天零点生效，或者  。
 3、激活状态：分为已激活和未激活，未激活的用户不能登录；
 4、锁定状态：分为已锁定和未锁定，当用户在某些情况下被认为是不安全的（例如，多次输入错误密码或账户被其他用户报告为恶意），他们的账户将被锁定。锁定账户的目的是防止用户在不安全的情况下使用其账户。在账户被锁定期间，用户无法登录，并且必须在特定的时间段内重置密码或联系管理员以解锁账户。</t>
     </r>
@@ -180,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +302,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -632,7 +714,7 @@
     <col min="5" max="5" width="56.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="162" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
